--- a/Unity/Assets/Config/Excel/TreeConfig.xlsx
+++ b/Unity/Assets/Config/Excel/TreeConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Id</t>
   </si>
@@ -41,6 +41,9 @@
     <t>血量</t>
   </si>
   <si>
+    <t>复活时间</t>
+  </si>
+  <si>
     <t>AwardConfigId</t>
   </si>
   <si>
@@ -48,6 +51,9 @@
   </si>
   <si>
     <t>HP</t>
+  </si>
+  <si>
+    <t>RiseTime</t>
   </si>
   <si>
     <t>int</t>
@@ -1057,7 +1063,7 @@
   <dimension ref="C3:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F18"/>
+      <selection activeCell="E6" sqref="E6:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1087,7 +1093,9 @@
       <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
@@ -1096,36 +1104,40 @@
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
     <row r="5" ht="13.5" spans="3:9">
       <c r="C5" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:6">
+    <row r="6" s="1" customFormat="1" spans="3:7">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
@@ -1133,13 +1145,16 @@
         <v>10004</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F6" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="3:6">
+      <c r="G6" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:7">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
@@ -1147,13 +1162,16 @@
         <v>10004</v>
       </c>
       <c r="E7" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F7" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="3:6">
+      <c r="G7" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="3:7">
       <c r="C8" s="1">
         <v>1003</v>
       </c>
@@ -1161,13 +1179,16 @@
         <v>10004</v>
       </c>
       <c r="E8" s="1">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F8" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="3:6">
+      <c r="G8" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="3:7">
       <c r="C9" s="1">
         <v>1004</v>
       </c>
@@ -1175,10 +1196,13 @@
         <v>10004</v>
       </c>
       <c r="E9" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F9" s="6">
         <v>8</v>
+      </c>
+      <c r="G9" s="1">
+        <v>10000</v>
       </c>
     </row>
     <row r="10" spans="3:8">
@@ -1189,12 +1213,14 @@
         <v>10004</v>
       </c>
       <c r="E10" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F10" s="6">
         <v>9</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <v>10000</v>
+      </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="3:8">
@@ -1205,12 +1231,14 @@
         <v>10004</v>
       </c>
       <c r="E11" s="1">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="F11" s="6">
         <v>10</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <v>10000</v>
+      </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="3:8">
@@ -1221,12 +1249,14 @@
         <v>10004</v>
       </c>
       <c r="E12" s="1">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="F12" s="6">
         <v>11</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <v>10000</v>
+      </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="3:8">
@@ -1237,12 +1267,14 @@
         <v>10004</v>
       </c>
       <c r="E13" s="1">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="F13" s="6">
         <v>12</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <v>10000</v>
+      </c>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="3:8">
@@ -1253,12 +1285,14 @@
         <v>10004</v>
       </c>
       <c r="E14" s="1">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="F14" s="6">
         <v>13</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1">
+        <v>10000</v>
+      </c>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="3:8">
@@ -1269,12 +1303,14 @@
         <v>10004</v>
       </c>
       <c r="E15" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F15" s="6">
         <v>14</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1">
+        <v>10000</v>
+      </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="3:8">
@@ -1285,12 +1321,14 @@
         <v>10004</v>
       </c>
       <c r="E16" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="F16" s="6">
         <v>15</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1">
+        <v>10000</v>
+      </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="3:8">
@@ -1301,12 +1339,14 @@
         <v>10004</v>
       </c>
       <c r="E17" s="1">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="F17" s="6">
         <v>16</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1">
+        <v>10000</v>
+      </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="3:8">
@@ -1317,12 +1357,14 @@
         <v>10004</v>
       </c>
       <c r="E18" s="1">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="F18" s="6">
         <v>17</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <v>10000</v>
+      </c>
       <c r="H18" s="1"/>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/TreeConfig.xlsx
+++ b/Unity/Assets/Config/Excel/TreeConfig.xlsx
@@ -27,11 +27,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Id</t>
   </si>
   <si>
+    <t>名称</t>
+  </si>
+  <si>
     <t>奖励道具类型</t>
   </si>
   <si>
@@ -44,6 +47,18 @@
     <t>复活时间</t>
   </si>
   <si>
+    <t>Idle动作</t>
+  </si>
+  <si>
+    <t>BeAttack动作</t>
+  </si>
+  <si>
+    <t>Death动作</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>AwardConfigId</t>
   </si>
   <si>
@@ -56,7 +71,43 @@
     <t>RiseTime</t>
   </si>
   <si>
+    <t>IdleAnim</t>
+  </si>
+  <si>
+    <t>BeAttackAnim</t>
+  </si>
+  <si>
+    <t>DeathAnim</t>
+  </si>
+  <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Tree1</t>
+  </si>
+  <si>
+    <t>sm1</t>
+  </si>
+  <si>
+    <t>sm2</t>
+  </si>
+  <si>
+    <t>sm3</t>
+  </si>
+  <si>
+    <t>Stone1</t>
+  </si>
+  <si>
+    <t>ks1</t>
+  </si>
+  <si>
+    <t>ks2</t>
+  </si>
+  <si>
+    <t>ks3</t>
   </si>
 </sst>
 </file>
@@ -1060,312 +1111,257 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:I18"/>
+  <dimension ref="C3:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E18"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="21.1272727272727" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7545454545455" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.6272727272727" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.7272727272727" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.7272727272727" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.5454545454545" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.0909090909091" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.9090909090909" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.4545454545455" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="3" max="4" width="12.6272727272727" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.7272727272727" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.7272727272727" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.5454545454545" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.0909090909091" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.9090909090909" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.4545454545455" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" ht="13.5" spans="3:9">
+    <row r="3" ht="13.5" spans="3:11">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" ht="13.5" spans="3:9">
+      <c r="H3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="13.5" spans="3:11">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>5</v>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" ht="13.5" spans="3:9">
+        <v>12</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="13.5" spans="3:11">
       <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="3:7">
+        <v>17</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:11">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1">
         <v>10004</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>10</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G6" s="6">
         <v>5</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>10000</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="3:7">
+      <c r="I6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:11">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
-      <c r="D7" s="1">
-        <v>10004</v>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E7" s="1">
+        <v>10005</v>
+      </c>
+      <c r="F7" s="1">
         <v>20</v>
       </c>
-      <c r="F7" s="6">
+      <c r="G7" s="6">
         <v>6</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>10000</v>
       </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="3:7">
-      <c r="C8" s="1">
-        <v>1003</v>
-      </c>
-      <c r="D8" s="1">
-        <v>10004</v>
-      </c>
-      <c r="E8" s="1">
-        <v>30</v>
-      </c>
-      <c r="F8" s="6">
-        <v>7</v>
-      </c>
-      <c r="G8" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="3:7">
-      <c r="C9" s="1">
-        <v>1004</v>
-      </c>
-      <c r="D9" s="1">
-        <v>10004</v>
-      </c>
-      <c r="E9" s="1">
-        <v>40</v>
-      </c>
-      <c r="F9" s="6">
-        <v>8</v>
-      </c>
-      <c r="G9" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8">
-      <c r="C10" s="1">
-        <v>1005</v>
-      </c>
-      <c r="D10" s="1">
-        <v>10004</v>
-      </c>
-      <c r="E10" s="1">
-        <v>50</v>
-      </c>
-      <c r="F10" s="6">
-        <v>9</v>
-      </c>
-      <c r="G10" s="1">
-        <v>10000</v>
-      </c>
+      <c r="I7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="7:7">
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="7:7">
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="3:9">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="3:8">
-      <c r="C11" s="1">
-        <v>1006</v>
-      </c>
-      <c r="D11" s="1">
-        <v>10004</v>
-      </c>
-      <c r="E11" s="1">
-        <v>60</v>
-      </c>
-      <c r="F11" s="6">
-        <v>10</v>
-      </c>
-      <c r="G11" s="1">
-        <v>10000</v>
-      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="3:9">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="3:8">
-      <c r="C12" s="1">
-        <v>1007</v>
-      </c>
-      <c r="D12" s="1">
-        <v>10004</v>
-      </c>
-      <c r="E12" s="1">
-        <v>70</v>
-      </c>
-      <c r="F12" s="6">
-        <v>11</v>
-      </c>
-      <c r="G12" s="1">
-        <v>10000</v>
-      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="3:9">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="3:8">
-      <c r="C13" s="1">
-        <v>1008</v>
-      </c>
-      <c r="D13" s="1">
-        <v>10004</v>
-      </c>
-      <c r="E13" s="1">
-        <v>80</v>
-      </c>
-      <c r="F13" s="6">
-        <v>12</v>
-      </c>
-      <c r="G13" s="1">
-        <v>10000</v>
-      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="3:9">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="3:8">
-      <c r="C14" s="1">
-        <v>1009</v>
-      </c>
-      <c r="D14" s="1">
-        <v>10004</v>
-      </c>
-      <c r="E14" s="1">
-        <v>90</v>
-      </c>
-      <c r="F14" s="6">
-        <v>13</v>
-      </c>
-      <c r="G14" s="1">
-        <v>10000</v>
-      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="3:9">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="6"/>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="3:8">
-      <c r="C15" s="1">
-        <v>1010</v>
-      </c>
-      <c r="D15" s="1">
-        <v>10004</v>
-      </c>
-      <c r="E15" s="1">
-        <v>100</v>
-      </c>
-      <c r="F15" s="6">
-        <v>14</v>
-      </c>
-      <c r="G15" s="1">
-        <v>10000</v>
-      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="3:9">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="3:8">
-      <c r="C16" s="1">
-        <v>1011</v>
-      </c>
-      <c r="D16" s="1">
-        <v>10004</v>
-      </c>
-      <c r="E16" s="1">
-        <v>110</v>
-      </c>
-      <c r="F16" s="6">
-        <v>15</v>
-      </c>
-      <c r="G16" s="1">
-        <v>10000</v>
-      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="3:9">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="6"/>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="3:8">
-      <c r="C17" s="1">
-        <v>1012</v>
-      </c>
-      <c r="D17" s="1">
-        <v>10004</v>
-      </c>
-      <c r="E17" s="1">
-        <v>120</v>
-      </c>
-      <c r="F17" s="6">
-        <v>16</v>
-      </c>
-      <c r="G17" s="1">
-        <v>10000</v>
-      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="6"/>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="3:8">
-      <c r="C18" s="1">
-        <v>1013</v>
-      </c>
-      <c r="D18" s="1">
-        <v>10004</v>
-      </c>
-      <c r="E18" s="1">
-        <v>130</v>
-      </c>
-      <c r="F18" s="6">
-        <v>17</v>
-      </c>
-      <c r="G18" s="1">
-        <v>10000</v>
-      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="6"/>
       <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
